--- a/data/news_and_keyword/kosdaq/JTC.xlsx
+++ b/data/news_and_keyword/kosdaq/JTC.xlsx
@@ -1279,12 +1279,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>계열사 사전면세시장 진출 추진 소식에 상승</t>
+          <t>계열사 사전면세시장 진출에 급등</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['계열사', '사전면세시장', '진출', '추진', '소식에']</t>
+          <t>['계열사', '사전면세시장', '진출에', '급등']</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>계열사 사전면세시장 진출에 급등</t>
+          <t>계열사 사전면세시장 진출 추진 소식에 상승</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['계열사', '사전면세시장', '진출에', '급등']</t>
+          <t>['계열사', '사전면세시장', '진출', '추진', '소식에']</t>
         </is>
       </c>
       <c r="D34" t="n">
